--- a/Desglose Tarifa Aguascalientes 143.xlsx
+++ b/Desglose Tarifa Aguascalientes 143.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Anahp\PASE2\EVENTUALES 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brink\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D7A8D6-D956-41C0-8F99-972E5C30A31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD7E0E9-3A3E-4247-B13C-6004A5FBC546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="570" windowWidth="10950" windowHeight="12990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A-143 Jun 18" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>DESGLOSE TARIFA AGUASCALIENTES 143</t>
   </si>
@@ -74,6 +72,21 @@
   </si>
   <si>
     <t>9 A 24 HORAS</t>
+  </si>
+  <si>
+    <t>0 min</t>
+  </si>
+  <si>
+    <t>17 min - 31 min</t>
+  </si>
+  <si>
+    <t>32 min - 45 min</t>
+  </si>
+  <si>
+    <t>01 min - 16 min</t>
+  </si>
+  <si>
+    <t>46 min - 00min</t>
   </si>
 </sst>
 </file>
@@ -146,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +227,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -233,9 +247,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,9 +287,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,26 +322,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,26 +357,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,75 +539,75 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="257" max="257" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="513" max="513" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="769" max="769" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1025" max="1025" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1281" max="1281" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1537" max="1537" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1793" max="1793" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2049" max="2049" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2305" max="2305" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2561" max="2561" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2817" max="2817" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3073" max="3073" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3329" max="3329" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3585" max="3585" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3841" max="3841" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4097" max="4097" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4353" max="4353" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4609" max="4609" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4865" max="4865" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5121" max="5121" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5377" max="5377" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5633" max="5633" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5889" max="5889" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6145" max="6145" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6401" max="6401" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6657" max="6657" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6913" max="6913" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7169" max="7169" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7425" max="7425" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7681" max="7681" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7937" max="7937" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8193" max="8193" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8449" max="8449" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8705" max="8705" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8961" max="8961" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9217" max="9217" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9473" max="9473" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9729" max="9729" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9985" max="9985" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10241" max="10241" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10497" max="10497" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10753" max="10753" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11009" max="11009" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11265" max="11265" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11521" max="11521" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11777" max="11777" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12033" max="12033" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12289" max="12289" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12545" max="12545" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12801" max="12801" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13057" max="13057" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13313" max="13313" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13569" max="13569" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13825" max="13825" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14081" max="14081" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14337" max="14337" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14593" max="14593" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14849" max="14849" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15105" max="15105" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15361" max="15361" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15617" max="15617" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15873" max="15873" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16129" max="16129" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -635,7 +615,7 @@
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -643,7 +623,7 @@
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -657,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -673,7 +653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1.25</v>
       </c>
@@ -690,7 +670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f>+A5+0.25</f>
         <v>1.5</v>
@@ -708,7 +688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>+A6+0.25</f>
         <v>1.75</v>
@@ -726,7 +706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>+A7+0.25</f>
         <v>2</v>
@@ -744,7 +724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A13" si="3">+A8+0.25</f>
         <v>2.25</v>
@@ -762,7 +742,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="3"/>
         <v>2.5</v>
@@ -780,7 +760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>2.75</v>
@@ -798,7 +778,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -816,7 +796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="3"/>
         <v>3.25</v>
@@ -834,7 +814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -851,7 +831,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -867,7 +847,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>9</v>
       </c>
@@ -883,7 +863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -906,140 +886,140 @@
       <selection activeCell="F3" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.81640625" style="10"/>
-    <col min="10" max="256" width="10.81640625" style="10"/>
-    <col min="257" max="257" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="258" max="512" width="10.81640625" style="10"/>
-    <col min="513" max="513" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="514" max="768" width="10.81640625" style="10"/>
-    <col min="769" max="769" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="770" max="1024" width="10.81640625" style="10"/>
-    <col min="1025" max="1025" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1280" width="10.81640625" style="10"/>
-    <col min="1281" max="1281" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1536" width="10.81640625" style="10"/>
-    <col min="1537" max="1537" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1792" width="10.81640625" style="10"/>
-    <col min="1793" max="1793" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="1794" max="2048" width="10.81640625" style="10"/>
-    <col min="2049" max="2049" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2304" width="10.81640625" style="10"/>
-    <col min="2305" max="2305" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2560" width="10.81640625" style="10"/>
-    <col min="2561" max="2561" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2816" width="10.81640625" style="10"/>
-    <col min="2817" max="2817" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2818" max="3072" width="10.81640625" style="10"/>
-    <col min="3073" max="3073" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3328" width="10.81640625" style="10"/>
-    <col min="3329" max="3329" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3584" width="10.81640625" style="10"/>
-    <col min="3585" max="3585" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3840" width="10.81640625" style="10"/>
-    <col min="3841" max="3841" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3842" max="4096" width="10.81640625" style="10"/>
-    <col min="4097" max="4097" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4352" width="10.81640625" style="10"/>
-    <col min="4353" max="4353" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4608" width="10.81640625" style="10"/>
-    <col min="4609" max="4609" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4864" width="10.81640625" style="10"/>
-    <col min="4865" max="4865" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4866" max="5120" width="10.81640625" style="10"/>
-    <col min="5121" max="5121" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5376" width="10.81640625" style="10"/>
-    <col min="5377" max="5377" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5632" width="10.81640625" style="10"/>
-    <col min="5633" max="5633" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5888" width="10.81640625" style="10"/>
-    <col min="5889" max="5889" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5890" max="6144" width="10.81640625" style="10"/>
-    <col min="6145" max="6145" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6400" width="10.81640625" style="10"/>
-    <col min="6401" max="6401" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6656" width="10.81640625" style="10"/>
-    <col min="6657" max="6657" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6912" width="10.81640625" style="10"/>
-    <col min="6913" max="6913" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6914" max="7168" width="10.81640625" style="10"/>
-    <col min="7169" max="7169" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7424" width="10.81640625" style="10"/>
-    <col min="7425" max="7425" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7680" width="10.81640625" style="10"/>
-    <col min="7681" max="7681" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7936" width="10.81640625" style="10"/>
-    <col min="7937" max="7937" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7938" max="8192" width="10.81640625" style="10"/>
-    <col min="8193" max="8193" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8448" width="10.81640625" style="10"/>
-    <col min="8449" max="8449" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8704" width="10.81640625" style="10"/>
-    <col min="8705" max="8705" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8960" width="10.81640625" style="10"/>
-    <col min="8961" max="8961" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8962" max="9216" width="10.81640625" style="10"/>
-    <col min="9217" max="9217" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9472" width="10.81640625" style="10"/>
-    <col min="9473" max="9473" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9728" width="10.81640625" style="10"/>
-    <col min="9729" max="9729" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9984" width="10.81640625" style="10"/>
-    <col min="9985" max="9985" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9986" max="10240" width="10.81640625" style="10"/>
-    <col min="10241" max="10241" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10496" width="10.81640625" style="10"/>
-    <col min="10497" max="10497" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10752" width="10.81640625" style="10"/>
-    <col min="10753" max="10753" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10754" max="11008" width="10.81640625" style="10"/>
-    <col min="11009" max="11009" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11264" width="10.81640625" style="10"/>
-    <col min="11265" max="11265" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11520" width="10.81640625" style="10"/>
-    <col min="11521" max="11521" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11776" width="10.81640625" style="10"/>
-    <col min="11777" max="11777" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11778" max="12032" width="10.81640625" style="10"/>
-    <col min="12033" max="12033" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12288" width="10.81640625" style="10"/>
-    <col min="12289" max="12289" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12544" width="10.81640625" style="10"/>
-    <col min="12545" max="12545" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12800" width="10.81640625" style="10"/>
-    <col min="12801" max="12801" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12802" max="13056" width="10.81640625" style="10"/>
-    <col min="13057" max="13057" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13312" width="10.81640625" style="10"/>
-    <col min="13313" max="13313" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13568" width="10.81640625" style="10"/>
-    <col min="13569" max="13569" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13824" width="10.81640625" style="10"/>
-    <col min="13825" max="13825" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13826" max="14080" width="10.81640625" style="10"/>
-    <col min="14081" max="14081" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14336" width="10.81640625" style="10"/>
-    <col min="14337" max="14337" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14592" width="10.81640625" style="10"/>
-    <col min="14593" max="14593" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14848" width="10.81640625" style="10"/>
-    <col min="14849" max="14849" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="14850" max="15104" width="10.81640625" style="10"/>
-    <col min="15105" max="15105" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15360" width="10.81640625" style="10"/>
-    <col min="15361" max="15361" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15616" width="10.81640625" style="10"/>
-    <col min="15617" max="15617" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15872" width="10.81640625" style="10"/>
-    <col min="15873" max="15873" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15874" max="16128" width="10.81640625" style="10"/>
-    <col min="16129" max="16129" width="14.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16384" width="10.81640625" style="10"/>
+    <col min="1" max="1" width="15.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.85546875" style="10"/>
+    <col min="10" max="256" width="10.85546875" style="10"/>
+    <col min="257" max="257" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="258" max="512" width="10.85546875" style="10"/>
+    <col min="513" max="513" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="514" max="768" width="10.85546875" style="10"/>
+    <col min="769" max="769" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="770" max="1024" width="10.85546875" style="10"/>
+    <col min="1025" max="1025" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1280" width="10.85546875" style="10"/>
+    <col min="1281" max="1281" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1536" width="10.85546875" style="10"/>
+    <col min="1537" max="1537" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1792" width="10.85546875" style="10"/>
+    <col min="1793" max="1793" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1794" max="2048" width="10.85546875" style="10"/>
+    <col min="2049" max="2049" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2304" width="10.85546875" style="10"/>
+    <col min="2305" max="2305" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2560" width="10.85546875" style="10"/>
+    <col min="2561" max="2561" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2816" width="10.85546875" style="10"/>
+    <col min="2817" max="2817" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2818" max="3072" width="10.85546875" style="10"/>
+    <col min="3073" max="3073" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3328" width="10.85546875" style="10"/>
+    <col min="3329" max="3329" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3584" width="10.85546875" style="10"/>
+    <col min="3585" max="3585" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3840" width="10.85546875" style="10"/>
+    <col min="3841" max="3841" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3842" max="4096" width="10.85546875" style="10"/>
+    <col min="4097" max="4097" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4352" width="10.85546875" style="10"/>
+    <col min="4353" max="4353" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4608" width="10.85546875" style="10"/>
+    <col min="4609" max="4609" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4864" width="10.85546875" style="10"/>
+    <col min="4865" max="4865" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4866" max="5120" width="10.85546875" style="10"/>
+    <col min="5121" max="5121" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5376" width="10.85546875" style="10"/>
+    <col min="5377" max="5377" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5632" width="10.85546875" style="10"/>
+    <col min="5633" max="5633" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5888" width="10.85546875" style="10"/>
+    <col min="5889" max="5889" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5890" max="6144" width="10.85546875" style="10"/>
+    <col min="6145" max="6145" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6400" width="10.85546875" style="10"/>
+    <col min="6401" max="6401" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6656" width="10.85546875" style="10"/>
+    <col min="6657" max="6657" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6912" width="10.85546875" style="10"/>
+    <col min="6913" max="6913" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6914" max="7168" width="10.85546875" style="10"/>
+    <col min="7169" max="7169" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7424" width="10.85546875" style="10"/>
+    <col min="7425" max="7425" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7680" width="10.85546875" style="10"/>
+    <col min="7681" max="7681" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7936" width="10.85546875" style="10"/>
+    <col min="7937" max="7937" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7938" max="8192" width="10.85546875" style="10"/>
+    <col min="8193" max="8193" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8448" width="10.85546875" style="10"/>
+    <col min="8449" max="8449" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8704" width="10.85546875" style="10"/>
+    <col min="8705" max="8705" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8960" width="10.85546875" style="10"/>
+    <col min="8961" max="8961" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8962" max="9216" width="10.85546875" style="10"/>
+    <col min="9217" max="9217" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9472" width="10.85546875" style="10"/>
+    <col min="9473" max="9473" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9728" width="10.85546875" style="10"/>
+    <col min="9729" max="9729" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9984" width="10.85546875" style="10"/>
+    <col min="9985" max="9985" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10240" width="10.85546875" style="10"/>
+    <col min="10241" max="10241" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10496" width="10.85546875" style="10"/>
+    <col min="10497" max="10497" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10752" width="10.85546875" style="10"/>
+    <col min="10753" max="10753" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10754" max="11008" width="10.85546875" style="10"/>
+    <col min="11009" max="11009" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11264" width="10.85546875" style="10"/>
+    <col min="11265" max="11265" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11520" width="10.85546875" style="10"/>
+    <col min="11521" max="11521" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11776" width="10.85546875" style="10"/>
+    <col min="11777" max="11777" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11778" max="12032" width="10.85546875" style="10"/>
+    <col min="12033" max="12033" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12288" width="10.85546875" style="10"/>
+    <col min="12289" max="12289" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12544" width="10.85546875" style="10"/>
+    <col min="12545" max="12545" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12800" width="10.85546875" style="10"/>
+    <col min="12801" max="12801" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12802" max="13056" width="10.85546875" style="10"/>
+    <col min="13057" max="13057" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13312" width="10.85546875" style="10"/>
+    <col min="13313" max="13313" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13568" width="10.85546875" style="10"/>
+    <col min="13569" max="13569" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13824" width="10.85546875" style="10"/>
+    <col min="13825" max="13825" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13826" max="14080" width="10.85546875" style="10"/>
+    <col min="14081" max="14081" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14336" width="10.85546875" style="10"/>
+    <col min="14337" max="14337" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14592" width="10.85546875" style="10"/>
+    <col min="14593" max="14593" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14848" width="10.85546875" style="10"/>
+    <col min="14849" max="14849" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14850" max="15104" width="10.85546875" style="10"/>
+    <col min="15105" max="15105" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15360" width="10.85546875" style="10"/>
+    <col min="15361" max="15361" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15616" width="10.85546875" style="10"/>
+    <col min="15617" max="15617" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15872" width="10.85546875" style="10"/>
+    <col min="15873" max="15873" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15874" max="16128" width="10.85546875" style="10"/>
+    <col min="16129" max="16129" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16384" width="10.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1027,7 @@
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1035,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1.25</v>
       </c>
@@ -1102,7 +1082,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f t="shared" ref="A6:A12" si="3">+A5+0.25</f>
         <v>1.5</v>
@@ -1120,7 +1100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f t="shared" si="3"/>
         <v>1.75</v>
@@ -1138,7 +1118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1156,7 +1136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f t="shared" si="3"/>
         <v>2.25</v>
@@ -1174,7 +1154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f t="shared" si="3"/>
         <v>2.5</v>
@@ -1192,7 +1172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f t="shared" si="3"/>
         <v>2.75</v>
@@ -1210,7 +1190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -1228,7 +1208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1240,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
@@ -1293,19 +1273,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="10" customWidth="1"/>
-    <col min="2" max="4" width="13.1796875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="10" customWidth="1"/>
+    <col min="2" max="4" width="13.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1294,7 @@
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
@@ -1321,7 +1302,7 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
@@ -1351,25 +1332,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
     </row>
-    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1.25</v>
       </c>
@@ -1386,7 +1367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f t="shared" ref="A9:A38" si="2">+A8+0.25</f>
         <v>1.5</v>
@@ -1404,7 +1385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f t="shared" si="2"/>
         <v>1.75</v>
@@ -1422,7 +1403,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -1440,7 +1421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f t="shared" si="2"/>
         <v>2.25</v>
@@ -1458,7 +1439,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f t="shared" si="2"/>
         <v>2.5</v>
@@ -1476,7 +1457,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f t="shared" si="2"/>
         <v>2.75</v>
@@ -1494,7 +1475,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1512,7 +1493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f t="shared" si="2"/>
         <v>3.25</v>
@@ -1530,7 +1511,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f t="shared" si="2"/>
         <v>3.5</v>
@@ -1548,7 +1529,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f t="shared" si="2"/>
         <v>3.75</v>
@@ -1566,7 +1547,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1584,7 +1565,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f t="shared" si="2"/>
         <v>4.25</v>
@@ -1602,7 +1583,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f t="shared" si="2"/>
         <v>4.5</v>
@@ -1620,7 +1601,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f t="shared" si="2"/>
         <v>4.75</v>
@@ -1638,7 +1619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1656,7 +1637,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f t="shared" si="2"/>
         <v>5.25</v>
@@ -1674,7 +1655,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f t="shared" si="2"/>
         <v>5.5</v>
@@ -1692,7 +1673,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f t="shared" si="2"/>
         <v>5.75</v>
@@ -1710,7 +1691,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1728,7 +1709,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f t="shared" si="2"/>
         <v>6.25</v>
@@ -1746,7 +1727,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f t="shared" si="2"/>
         <v>6.5</v>
@@ -1764,7 +1745,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f t="shared" si="2"/>
         <v>6.75</v>
@@ -1782,7 +1763,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1800,7 +1781,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f t="shared" si="2"/>
         <v>7.25</v>
@@ -1818,7 +1799,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f t="shared" si="2"/>
         <v>7.5</v>
@@ -1836,7 +1817,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f t="shared" si="2"/>
         <v>7.75</v>
@@ -1854,7 +1835,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1871,8 +1852,11 @@
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <f t="shared" si="2"/>
         <v>8.25</v>
@@ -1889,8 +1873,11 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <f t="shared" si="2"/>
         <v>8.5</v>
@@ -1907,8 +1894,11 @@
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <f t="shared" si="2"/>
         <v>8.75</v>
@@ -1925,8 +1915,11 @@
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>12</v>
       </c>
@@ -1941,14 +1934,17 @@
       <c r="D39" s="19">
         <v>250</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="14"/>
       <c r="C40" s="16"/>
       <c r="D40" s="19"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>9</v>
       </c>
